--- a/architecture.xlsx
+++ b/architecture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demare.g\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demare.g\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A2CC0F-30FF-4952-81BB-36BFE29705F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2104B294-F78F-4346-8BFC-0DEDF02A15BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2085" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{86754ABD-5277-4DA4-94D7-B5F70C5953C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{86754ABD-5277-4DA4-94D7-B5F70C5953C5}"/>
   </bookViews>
   <sheets>
     <sheet name="fichier memento" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="181">
   <si>
     <t>ACM</t>
   </si>
   <si>
-    <t>ACP</t>
-  </si>
-  <si>
     <t>AFC</t>
   </si>
   <si>
@@ -576,6 +573,9 @@
   </si>
   <si>
     <t>74,74,80</t>
+  </si>
+  <si>
+    <t>business-object</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1108,8 @@
     <tableColumn id="5" xr3:uid="{9584AB55-9111-45C1-902D-E559C3DFEE85}" name="r"/>
     <tableColumn id="6" xr3:uid="{64A474AB-F30D-415B-AAA4-8FC5C5F0CC98}" name="sas"/>
     <tableColumn id="7" xr3:uid="{F9C05F8C-915B-4823-8972-349C9792A92B}" name="python"/>
-    <tableColumn id="8" xr3:uid="{24D899EB-CDE6-4B90-9C53-983DEE26F7E0}" name="javaScipt" dataDxfId="5">
-      <calculatedColumnFormula>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E2,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{24D899EB-CDE6-4B90-9C53-983DEE26F7E0}" name="javaScipt" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E2,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1128,19 +1128,19 @@
     <tableColumn id="5" xr3:uid="{84F37B37-C107-4FF7-A944-0BA3178F5EDA}" name="css">
       <calculatedColumnFormula>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8C9D8BF9-FE05-4B03-845A-DF2EEFFCDA36}" name="dark css rgb" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{8C9D8BF9-FE05-4B03-845A-DF2EEFFCDA36}" name="dark css rgb" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.CONCAT("rgb(",Tableau1[[#This Row],[dark rgb]],")")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C86C3E0C-F03A-4929-B2C9-7FC05B8CDEB3}" name="light css rgb" dataDxfId="3">
+    <tableColumn id="14" xr3:uid="{C86C3E0C-F03A-4929-B2C9-7FC05B8CDEB3}" name="light css rgb" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.CONCAT("rgb(",Tableau1[[#This Row],[light rgb]],")")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{97B17C4E-6B6F-4BFB-B1B3-ABAF98D02D02}" name="dark js " dataDxfId="2">
+    <tableColumn id="15" xr3:uid="{97B17C4E-6B6F-4BFB-B1B3-ABAF98D02D02}" name="dark js " dataDxfId="3">
       <calculatedColumnFormula>_xlfn.CONCAT("root.style.setProperty('--color-",Tableau1[[#This Row],[nom]],"','",Tableau1[[#This Row],[dark css rgb]],"');")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{E5AB9157-9B4D-40B5-8B3C-5F20F99A4E1C}" name="light js" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{E5AB9157-9B4D-40B5-8B3C-5F20F99A4E1C}" name="light js" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.CONCAT("root.style.setProperty('--color-",Tableau1[[#This Row],[nom]],"','",Tableau1[[#This Row],[light css rgb]],"');")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{78D2C4C7-AAE1-4048-91B0-18A29501747F}" name="description" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{78D2C4C7-AAE1-4048-91B0-18A29501747F}" name="description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4487D8-4F86-470C-8BB1-AB6E0C7C5F1D}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,37 +1459,37 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -1503,16 +1503,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E2,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[company,null,animateur,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E2,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['company',null,'animateur',1,0,0,0],</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1527,16 +1527,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E3,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[company,null,MOA-MOE,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E3,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['company',null,'MOA-MOE',1,0,0,0],</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1551,17 +1551,17 @@
         <v>0</v>
       </c>
       <c r="H4" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E4,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[company,null,job-interview,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E4,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['company',null,'job-interview',1,0,0,0],</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E5,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[database,null,data-warehouse,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E5,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['database',null,'data-warehouse',1,0,0,0],</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1599,16 +1599,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E6,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[database,null,json,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E6,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['database',null,'business-object',1,0,0,0],</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1623,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E7,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[database,null,sql,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E7,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['database',null,'json',1,0,0,0],</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1647,16 +1647,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E8,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[english,null,verbe,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E8,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['database',null,'sql',1,0,0,0],</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1671,17 +1671,17 @@
         <v>0</v>
       </c>
       <c r="H9" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E9,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[microsoft,null,excel,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E9,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['english',null,'verbe',1,0,0,0],</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E10,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[microsoft,null,outlook,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E10,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['microsoft',null,'excel',1,0,0,0],</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1719,16 +1719,16 @@
         <v>0</v>
       </c>
       <c r="H11" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E11,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[microsoft,null,word,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E11,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['microsoft',null,'outlook',1,0,0,0],</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1743,17 +1743,17 @@
         <v>0</v>
       </c>
       <c r="H12" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E12,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[programming,null,java,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E12,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['microsoft',null,'word',1,0,0,0],</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E13,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[programming,null,python,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E13,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['programming',null,'java',1,0,0,0],</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1791,49 +1791,46 @@
         <v>0</v>
       </c>
       <c r="H14" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E14,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[projects,null,raspberry-wifi,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E14,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['programming',null,'python',1,0,0,0],</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E15,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,ACM,1,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E15,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['projects',null,'raspberry-wifi',1,0,0,0],</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1845,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="H16" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E16,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,ACP,0,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E16,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','ACM',1,1,1,0],</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1872,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="H17" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E17,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,AFC,1,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E17,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','AFC',1,1,1,0],</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1899,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="H18" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E18,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,ANOVA,1,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E18,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','ANOVA',1,1,1,0],</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1926,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="H19" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E19,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,ARMA,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E19,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','ARMA',1,0,0,0],</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1953,19 +1950,19 @@
         <v>0</v>
       </c>
       <c r="H20" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E20,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,CAH,1,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E20,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','CAH',1,1,1,0],</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1980,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="H21" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E21,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,CDH,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E21,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','CDH',1,0,0,0],</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2007,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="H22" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E22,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,SVM,1,1,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E22,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','SVM',1,1,0,0],</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2034,19 +2031,19 @@
         <v>0</v>
       </c>
       <c r="H23" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E23,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,analyse-discriminante,1,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E23,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','analyse-discriminante',1,1,1,0],</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2061,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="H24" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E24,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,arbre-de-decision,1,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E24,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','arbre-de-decision',1,1,1,0],</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2088,19 +2085,19 @@
         <v>0</v>
       </c>
       <c r="H25" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E25,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,boosting,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E25,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','boosting',1,0,0,0],</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2115,19 +2112,19 @@
         <v>0</v>
       </c>
       <c r="H26" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E26,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,carte-auto-adaptative,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E26,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','carte-auto-adaptative',1,0,0,0],</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2142,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="H27" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E27,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,centre-mobiles,1,0,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E27,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','centre-mobiles',1,0,1,0],</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2169,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="H28" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E28,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,centroide,1,0,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E28,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','centroide',1,0,1,0],</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2196,19 +2193,19 @@
         <v>0</v>
       </c>
       <c r="H29" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E29,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,classificateur-baysien,1,1,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E29,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','classificateur-baysien',1,1,0,0],</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2223,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="H30" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E30,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,cluestering-variables,1,0,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E30,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','cluestering-variables',1,0,1,0],</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2250,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E31,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,esperance-maximisation,1,0,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E31,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','esperance-maximisation',1,0,1,0],</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2277,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="H32" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E32,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,foret-aleatoire,1,1,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E32,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','foret-aleatoire',1,1,0,0],</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2304,19 +2301,19 @@
         <v>0</v>
       </c>
       <c r="H33" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E33,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,lissage-exponentiel,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E33,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','lissage-exponentiel',1,0,0,0],</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2331,19 +2328,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E34,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,perceptron,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E34,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','perceptron',1,0,0,0],</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2358,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E35,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,predire-evaluer,0,1,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E35,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','predire-evaluer',0,1,0,0],</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2385,19 +2382,19 @@
         <v>0</v>
       </c>
       <c r="H36" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E36,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,probleme-correlation,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E36,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','probleme-correlation',1,0,0,0],</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2412,19 +2409,19 @@
         <v>0</v>
       </c>
       <c r="H37" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E37,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,regression-lineaire,1,0,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E37,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','regression-lineaire',1,0,1,0],</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2439,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="H38" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E38,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,regression-logistique,1,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E38,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','regression-logistique',1,1,1,0],</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2466,19 +2463,19 @@
         <v>0</v>
       </c>
       <c r="H39" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E39,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,reseaux-neurones,1,1,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E39,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','reseaux-neurones',1,1,0,0],</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2493,19 +2490,19 @@
         <v>0</v>
       </c>
       <c r="H40" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E40,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,serie-temporelle-simple,0,1,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E40,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','serie-temporelle-simple',0,1,0,0],</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2520,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="H41" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E41,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,data-mining,serie-temporelle,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E41,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','data-mining','serie-temporelle',1,0,0,0],</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2547,16 +2544,16 @@
         <v>0</v>
       </c>
       <c r="H42" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E42,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,methode,cluestering-sans-cible,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E42,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics','methode','cluestering-sans-cible',1,0,0,0],</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2571,16 +2568,16 @@
         <v>0</v>
       </c>
       <c r="H43" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E43,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,null,automatiser,0,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E43,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics',null,'automatiser',0,1,1,0],</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2595,16 +2592,16 @@
         <v>0</v>
       </c>
       <c r="H44" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E44,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,null,carte,0,1,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E44,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics',null,'carte',0,1,0,0],</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2619,16 +2616,16 @@
         <v>0</v>
       </c>
       <c r="H45" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E45,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,null,classification,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E45,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics',null,'classification',1,0,0,0],</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2643,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="H46" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E46,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,null,deploy-Rshinny-shinyapps,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E46,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics',null,'deploy-Rshinny-shinyapps',1,0,0,0],</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2667,16 +2664,16 @@
         <v>0</v>
       </c>
       <c r="H47" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E47,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,null,dictionnaire-statistique,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E47,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics',null,'dictionnaire-statistique',1,0,0,0],</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2691,16 +2688,16 @@
         <v>0</v>
       </c>
       <c r="H48" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E48,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,null,formater-donnees,0,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E48,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics',null,'formater-donnees',0,1,1,0],</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2715,16 +2712,16 @@
         <v>0</v>
       </c>
       <c r="H49" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E49,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,null,graphiques,0,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E49,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics',null,'graphiques',0,1,1,0],</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2739,16 +2736,16 @@
         <v>0</v>
       </c>
       <c r="H50" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E50,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,null,manipuler-donnees,0,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E50,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics',null,'manipuler-donnees',0,1,1,0],</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2763,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="H51" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E51,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,null,reduction-dimensions,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E51,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics',null,'reduction-dimensions',1,0,0,0],</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2787,16 +2784,16 @@
         <v>0</v>
       </c>
       <c r="H52" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E52,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,null,statistique-descriptive,0,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E52,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics',null,'statistique-descriptive',0,1,1,0],</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2811,16 +2808,16 @@
         <v>0</v>
       </c>
       <c r="H53" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E53,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,null,tableau-de-bord,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E53,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics',null,'tableau-de-bord',1,0,0,0],</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2835,17 +2832,17 @@
         <v>0</v>
       </c>
       <c r="H54" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E54,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[statistics,null,tests,0,1,1,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E54,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['statistics',null,'tests',0,1,1,0],</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="s">
-        <v>65</v>
-      </c>
       <c r="D55">
         <v>1</v>
       </c>
@@ -2859,16 +2856,16 @@
         <v>0</v>
       </c>
       <c r="H55" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E55,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[unix,null,bash,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E55,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['unix',null,'bash',1,0,0,0],</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2883,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="H56" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E56,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[unix,null,folders-linux,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E56,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['unix',null,'folders-linux',1,0,0,0],</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2907,16 +2904,16 @@
         <v>0</v>
       </c>
       <c r="H57" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E57,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[unix,null,shell,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E57,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['unix',null,'shell',1,0,0,0],</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2931,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="H58" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E58,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[unix,null,vim,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E58,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['unix',null,'vim',1,0,0,0],</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2955,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="H59" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E59,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[web,null,css,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E59,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['web',null,'css',1,0,0,0],</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2979,16 +2976,16 @@
         <v>0</v>
       </c>
       <c r="H60" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E60,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[web,null,html,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E60,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['web',null,'html',1,0,0,0],</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -3003,17 +3000,17 @@
         <v>0</v>
       </c>
       <c r="H61" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E61,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[web,null,js,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E61,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['web',null,'js',1,0,0,0],</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" t="s">
         <v>43</v>
       </c>
-      <c r="C62" t="s">
-        <v>44</v>
-      </c>
       <c r="D62">
         <v>1</v>
       </c>
@@ -3027,8 +3024,8 @@
         <v>0</v>
       </c>
       <c r="H62" t="str">
-        <f>_xlfn.CONCAT("[",Tableau2[[#This Row],[dossier]],",",IF(Tableau2[[#This Row],[sousDossier]] ="","null",Tableau2[[#This Row],[sousDossier]]),",",Tableau2[[#This Row],[fichier]],",",Tableau2[[#This Row],[info]],",",E62,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"]")</f>
-        <v>[web,null,php,1,0,0,0]</v>
+        <f>_xlfn.CONCAT("['",Tableau2[[#This Row],[dossier]],"',",IF(Tableau2[[#This Row],[sousDossier]] ="","null",_xlfn.CONCAT("'",Tableau2[[#This Row],[sousDossier]],"'")),",'",Tableau2[[#This Row],[fichier]],"',",Tableau2[[#This Row],[info]],",",E62,",",Tableau2[[#This Row],[sas]],",",Tableau2[[#This Row],[python]],"],")</f>
+        <v>['web',null,'php',1,0,0,0],</v>
       </c>
     </row>
   </sheetData>
@@ -3059,50 +3056,50 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" t="s">
-        <v>132</v>
-      </c>
       <c r="I1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" t="s">
         <v>134</v>
       </c>
-      <c r="J1" t="s">
-        <v>135</v>
-      </c>
       <c r="K1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3125,20 +3122,20 @@
         <v>root.style.setProperty('--color-blue','rgb(0,122,255)');</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3165,14 +3162,14 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3199,14 +3196,14 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3233,14 +3230,14 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3267,14 +3264,14 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3301,14 +3298,14 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3335,14 +3332,14 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3369,14 +3366,14 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3403,14 +3400,14 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3437,14 +3434,14 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3471,14 +3468,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3505,14 +3502,14 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3539,14 +3536,14 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3573,14 +3570,14 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3607,14 +3604,14 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3641,14 +3638,14 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3671,20 +3668,20 @@
         <v>root.style.setProperty('--color-white','rgb(255,255,255)');</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3707,20 +3704,20 @@
         <v>root.style.setProperty('--color-bouton','rgb(246,246,246)');</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3743,20 +3740,20 @@
         <v>root.style.setProperty('--color-boutonSelect','rgb(105,106,106)');</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3779,20 +3776,20 @@
         <v>root.style.setProperty('--color-nav','rgb(217,217,217)');</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3815,20 +3812,20 @@
         <v>root.style.setProperty('--color-menu','rgb(227,228,229)');</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
         <v>157</v>
-      </c>
-      <c r="E23" t="s">
-        <v>158</v>
       </c>
       <c r="F23" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3851,20 +3848,20 @@
         <v>root.style.setProperty('--color-write','rgb(36,40,45)');</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="45"/>
       <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" t="s">
         <v>160</v>
-      </c>
-      <c r="E24" t="s">
-        <v>161</v>
       </c>
       <c r="F24" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -3904,7 +3901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA4C82B-CC3D-44E9-AC25-C202674F3AFC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3915,50 +3912,50 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" t="s">
-        <v>132</v>
-      </c>
       <c r="I1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" t="s">
         <v>134</v>
       </c>
-      <c r="J1" t="s">
-        <v>135</v>
-      </c>
       <c r="K1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="str">
         <f>_xlfn.CONCAT("var(--color-",E2, ")")</f>
@@ -3981,20 +3978,20 @@
         <v>root.style.setProperty('--color-blue','rgb(0,122,255)');</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F22" si="0">_xlfn.CONCAT("var(--color-",E3, ")")</f>
@@ -4021,14 +4018,14 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -4055,14 +4052,14 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -4089,14 +4086,14 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -4123,14 +4120,14 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -4157,14 +4154,14 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -4191,14 +4188,14 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -4225,14 +4222,14 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -4259,14 +4256,14 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -4293,14 +4290,14 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("var(--color-",Tableau1[[#This Row],[nom]], ")")</f>
@@ -4327,14 +4324,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
       <c r="B13" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -4360,14 +4357,14 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
       <c r="B14" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -4393,14 +4390,14 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
       <c r="B15" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -4426,14 +4423,14 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F16" t="str">
         <f>_xlfn.CONCAT("var(--color-",E16, ")")</f>
@@ -4459,14 +4456,14 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="63"/>
       <c r="B17" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F17" t="str">
         <f>_xlfn.CONCAT("var(--color-",E17, ")")</f>
@@ -4492,14 +4489,14 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
       <c r="B18" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -4525,14 +4522,14 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -4558,14 +4555,14 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="60"/>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -4591,14 +4588,14 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="53"/>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -4624,14 +4621,14 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
